--- a/dados.xlsx
+++ b/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,139 +436,459 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>chave</t>
+          <t>CNPJ</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>valor</t>
+          <t>Razão Social:</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Opção pelo MEI:</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Opção pelo Simples:</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Capital Social:</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Telefone(s):</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Bairro:</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CEP:</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Município:</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CNPJ:</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CNPJ:</t>
+          <t>39.942.442/0001-92</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azulsul Infraestruturas LTDA - CNPJ: 25526407000188 - Sócio Representado por Ossami Sakamori - Administrador
-Luiz Humberto Menezes Portugal de Lima - Sócio-Administrador</t>
-        </is>
-      </c>
+          <t>Empresarial Rochedo Holding Participacoes &amp; Empreendimentos LTDA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>R$ 11.000.100.000,00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(71) 3561-1180
+(Ligar)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Brotas</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>40280-000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Salvador</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Razão Social:</t>
+          <t>16.404.287/0001-55</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Razão Social: Novonor S.a - em Recuperacao Judicial</t>
-        </is>
-      </c>
+          <t>Suzano S.a.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>R$ 9.269.281.424,63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(11) 3636-5156
+(Ligar)
+(11) 3636-5000
+(Ligar)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pituba</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>41810-012</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Salvador</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Opção pelo MEI:</t>
+          <t>15.659.931/0001-73</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Opção pelo MEI: Não</t>
-        </is>
-      </c>
+          <t>Termoplast Embalagens LTDA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>R$ 6.600.000.000,00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(71) 2102-9100
+(Ligar)
+(71) 2102-9103
+(Ligar)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Dom Avelar</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>41315-000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Salvador</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Opção pelo Simples:</t>
+          <t>13.186.974/0001-53</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Opção pelo Simples: Não</t>
+          <t>Matrix Capital Asset Managgement LTDA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>R$ 5.650.000.000,00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(11) 4779-2813
+(Ligar)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pituba</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>41810-012</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Salvador</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>46042299000148 - Sócio Pessoa Jurídica Domiciliado no Exterior (Estados Unidos) Representado por Roberto Lazaro dos Santos - Procurador
+Roberto Lazaro dos Santos - Sócio-Administrador</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Capital Social:</t>
+          <t>13.504.675/0001-10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Capital Social: R$ 3.205.189.666,31</t>
-        </is>
-      </c>
+          <t>Empresa Baiana de Aguas e Saneamento SA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>R$ 4.957.122.519,84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(71) 3372-4929
+(Ligar)
+(71) 3372-4930
+(Ligar)
+(71) 3372-4232
+(Ligar)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Centro Administrativo da Bahia</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>41745-010</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Salvador</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Telefone(s):</t>
+          <t>01.300.764/0001-65</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Telefone(s):
-(11) 3792-4000
+          <t>Azul Telecomunicacoes LTDA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>R$ 4.010.090.000,00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(71) 98109-7422
+(Ligar) (Whatsapp)
+(41) 3053-5457
+(Ligar)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Fazenda Grande I</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>41339-230</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Salvador</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>25526407000188 - Sócio Representado por Ossami Sakamori - Administrador
+Luiz Humberto Menezes Portugal de Lima - Sócio-Administrador</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>05.144.757/0001-72</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Novonor S.a - em Recuperacao Judicial</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>R$ 3.205.189.666,31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(11) 3792-4000
 (Ligar)
 (11) 3096-8000
 (Ligar)</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Bairro:</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Bairro: Paralela</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CEP:</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CEP: 41730-900</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Município:</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Município: Salvador</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Estado</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Estado: Bahia</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Paralela</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>41730-900</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Salvador</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,6 @@
           <t>Estado</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CNPJ:</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -542,7 +537,6 @@
           <t>Bahia</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -598,7 +592,6 @@
           <t>Bahia</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -654,7 +647,6 @@
           <t>Bahia</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -704,11 +696,6 @@
         </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>Bahia</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>46042299000148 - Sócio Pessoa Jurídica Domiciliado no Exterior (Estados Unidos) Representado por Roberto Lazaro dos Santos - Procurador
 Roberto Lazaro dos Santos - Sócio-Administrador</t>
@@ -771,7 +758,6 @@
           <t>Bahia</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -827,12 +813,6 @@
           <t>Bahia</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>25526407000188 - Sócio Representado por Ossami Sakamori - Administrador
-Luiz Humberto Menezes Portugal de Lima - Sócio-Administrador</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -888,7 +868,6 @@
           <t>Bahia</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
